--- a/example/language.xlsx
+++ b/example/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyuha/workspace/vite-plugin-excel-to-i18n/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA662E0-5C00-BB45-9804-AFC234A5E5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB110525-670B-FE4C-A475-2769741B2CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28600" yWindow="15580" windowWidth="28800" windowHeight="27900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/example/language.xlsx
+++ b/example/language.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyuha/workspace/vite-plugin-excel-to-i18n/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyuha/workspace/temp/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB110525-670B-FE4C-A475-2769741B2CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A226E9D-12A5-3B4B-B901-ABA1ED05EA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28600" yWindow="15580" windowWidth="28800" windowHeight="27900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>category</t>
   </si>
@@ -82,6 +82,28 @@
   <si>
     <t>greeting</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i18n Multilingual Examples</t>
+  </si>
+  <si>
+    <t>jp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初期化</t>
+  </si>
+  <si>
+    <t>次へ</t>
+  </si>
+  <si>
+    <t>前のページ</t>
+  </si>
+  <si>
+    <t>i18n 多言語例</t>
+  </si>
+  <si>
+    <t>こんにちは</t>
   </si>
   <si>
     <r>
@@ -90,7 +112,6 @@
         <color theme="1"/>
         <rFont val="aptos narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>초기화</t>
     </r>
@@ -102,7 +123,6 @@
         <color rgb="FF000000"/>
         <rFont val="aptos narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>다음</t>
     </r>
@@ -114,7 +134,6 @@
         <color theme="1"/>
         <rFont val="aptos narrow"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>이전</t>
     </r>
@@ -127,25 +146,52 @@
         <rFont val="aptos narrow"/>
         <family val="2"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>안녕하세요</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i18n 다국어 예제</t>
+    <r>
+      <t xml:space="preserve">i18n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다국어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예제</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i18n Multilingual Examples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,21 +218,29 @@
       <name val="aptos narrow"/>
       <family val="2"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="aptos narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="aptos narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic Regular"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,11 +263,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -231,10 +288,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,105 +488,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC6"/>
+  <dimension ref="A1:XFD6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" customWidth="1"/>
-    <col min="5" max="26" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="27" max="16382" width="12.6640625" hidden="1"/>
-    <col min="16383" max="16383" width="12.6640625" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="93.5" hidden="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="43.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" style="1" customWidth="1"/>
+    <col min="6" max="27" width="7.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="16383" width="12.6640625" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="12.6640625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/example/language.xlsx
+++ b/example/language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gyuha/workspace/temp/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\vite-plugin-excel-to-i18n\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A226E9D-12A5-3B4B-B901-ABA1ED05EA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1463FC5-332D-4702-AB28-26D6811D5A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="2460" windowWidth="28210" windowHeight="18210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,27 +488,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="43.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" style="1" customWidth="1"/>
-    <col min="6" max="27" width="7.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="16383" width="12.6640625" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="12.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="43.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.81640625" style="1" customWidth="1"/>
+    <col min="6" max="27" width="7.6328125" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="16383" width="12.6328125" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="12.6328125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -576,7 +576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -590,7 +590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>

--- a/example/language.xlsx
+++ b/example/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\vite-plugin-excel-to-i18n\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1463FC5-332D-4702-AB28-26D6811D5A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF461E8-7C8F-403F-9586-745B3F5E21AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="2460" windowWidth="28210" windowHeight="18210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/example/language.xlsx
+++ b/example/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\vite-plugin-excel-to-i18n\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF461E8-7C8F-403F-9586-745B3F5E21AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ECED21-E16D-4BFE-8B3A-1A14AAD6A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="2460" windowWidth="28210" windowHeight="18210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,10 +87,6 @@
     <t>i18n Multilingual Examples</t>
   </si>
   <si>
-    <t>jp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初期化</t>
   </si>
   <si>
@@ -184,6 +180,10 @@
       </rPr>
       <t>예제</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +494,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18"/>
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -533,10 +533,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -550,10 +550,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -567,10 +567,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -581,10 +581,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
